--- a/medicine/Mort/La_Mort_du_jeune_poète/La_Mort_du_jeune_poète.xlsx
+++ b/medicine/Mort/La_Mort_du_jeune_poète/La_Mort_du_jeune_poète.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Mort_du_jeune_po%C3%A8te</t>
+          <t>La_Mort_du_jeune_poète</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Mort du jeune poète est un court métrage français écrit, produit et réalisé par Dominique Delouche, sorti en 1974.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Mort_du_jeune_po%C3%A8te</t>
+          <t>La_Mort_du_jeune_poète</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rome, novembre 1941. Dans une clinique de pneumologie se meurt Ion Bucur, un jeune poète roumain. À son chevet, son fidèle ami et compatriote, Eugen Drăguțescu, dessine et dessine. Au total il aura réalisé une série de trente représentations de Bucur, autant d’œuvres qui constituent le journal de bord d'une pathétique agonie...
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Mort_du_jeune_po%C3%A8te</t>
+          <t>La_Mort_du_jeune_poète</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation et scénario : Dominique Delouche
 Commentaire : poèmes de Ion Bucur lu par Dominique Leverd
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Mort_du_jeune_po%C3%A8te</t>
+          <t>La_Mort_du_jeune_poète</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1974 : Grand prix (catégorie court métrage) au Festival du film de Cork (Irlande)</t>
         </is>
